--- a/biology/Botanique/Liabum/Liabum.xlsx
+++ b/biology/Botanique/Liabum/Liabum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liabum est un genre de plantes à fleurs dicotylédones de la famille des Asteraceae, de la sous-famille des Cichorioideae, originaire des régions tropicales d'Amérique, du Mexique à l'Argentine, qui comprend environ 35 espèces acceptées.
-Ce sont des plantes herbacées vivaces, des arbrisseaux ou des arbustes, rarement des arbustes grimpants ou de petits arbres. Les feuilles, opposées, présentent trois nervures. Les capitules sont radiés et hétérogames, avec des fleurons ligulés pistillés et des fleurons tubulaires bisexués, ayant tous une corolle jaune[2].
+Ce sont des plantes herbacées vivaces, des arbrisseaux ou des arbustes, rarement des arbustes grimpants ou de petits arbres. Les feuilles, opposées, présentent trois nervures. Les capitules sont radiés et hétérogames, avec des fleurons ligulés pistillés et des fleurons tubulaires bisexués, ayant tous une corolle jaune.
 </t>
         </is>
       </c>
@@ -514,15 +526,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon World Register of Marine Species                               (25 octobre 2020)[3] 
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (25 octobre 2020) 
 Allendea La Llave &amp; Lex.
 Allendea La Llave
 Andromachia Humb. &amp; Bonpl.
 Starkea Willd.
 Viviania Willd. ex Less.
-Liste d'espèces
-Selon Plants of the World online (POWO)                (25 octobre 2020)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liabum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liabum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (25 octobre 2020) :
 Liabum acuminatum Rusby
 Liabum amplexicaule Poepp. &amp; Endl.
 Liabum asclepiadeum Sch.Bip.
